--- a/Konsep board game (21 maret 2021).xlsx
+++ b/Konsep board game (21 maret 2021).xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="19200" windowHeight="7660"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Project Charter , Project Scope" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="GANT CHART" sheetId="2" r:id="rId5"/>
+    <sheet name="Project Charter , Project Scope" sheetId="1" r:id="rId1"/>
+    <sheet name="GANT CHART" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -314,57 +317,426 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d mmmm yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="8">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="27">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="7">
-    <border/>
+  <borders count="15">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -378,19 +750,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -400,14 +763,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -419,6 +786,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -427,123 +796,369 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -733,586 +1348,590 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="102.43"/>
-    <col customWidth="1" min="3" max="3" width="108.0"/>
-    <col customWidth="1" min="4" max="4" width="30.0"/>
+    <col min="2" max="2" width="102.427272727273" customWidth="1"/>
+    <col min="3" max="3" width="108" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="4" t="s">
+    <row r="5" customHeight="1" spans="2:2">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
-        <v>4624.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="7">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" s="11">
+        <v>2</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="11">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="C18" s="10"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="11">
+        <v>1</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="11">
+        <v>2</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="11">
+        <v>3</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25" s="11">
+        <v>4</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="s">
+      <c r="C25" s="10"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B29" s="9" t="s">
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="11">
+        <v>1</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B30" s="9" t="s">
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="11">
+        <v>2</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="11">
+        <v>3</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="11">
+        <v>4</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B33" s="9" t="s">
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="11">
+        <v>5</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="16" t="s">
+      <c r="D33" s="17"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:1">
+      <c r="A35" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="17" t="s">
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="B37" s="21" t="s">
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="B38" s="21" t="s">
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="B39" s="21" t="s">
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="4">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B40" s="21" t="s">
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="4">
+        <v>4</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="20">
-        <v>5.0</v>
-      </c>
-      <c r="B41" s="21" t="s">
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="4">
+        <v>5</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="20">
-        <v>6.0</v>
-      </c>
-      <c r="B42" s="21" t="s">
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="4">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="20">
-        <v>7.0</v>
-      </c>
-      <c r="B43" s="21" t="s">
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="4">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="B44" s="21" t="s">
+    <row r="44" customHeight="1" spans="1:4">
+      <c r="A44" s="4">
+        <v>8</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="20">
-        <v>9.0</v>
-      </c>
-      <c r="B45" s="21" t="s">
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45" s="4">
+        <v>9</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="20">
-        <v>10.0</v>
-      </c>
-      <c r="B46" s="21" t="s">
+    <row r="46" customHeight="1" spans="1:4">
+      <c r="A46" s="4">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="20">
-        <v>11.0</v>
-      </c>
-      <c r="B47" s="21" t="s">
+    <row r="47" customHeight="1" spans="1:4">
+      <c r="A47" s="4">
+        <v>11</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="20">
-        <v>12.0</v>
-      </c>
-      <c r="B48" s="21" t="s">
+    <row r="48" customHeight="1" spans="1:4">
+      <c r="A48" s="4">
+        <v>12</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="20">
-        <v>13.0</v>
-      </c>
-      <c r="B49" s="21" t="s">
+    <row r="49" customHeight="1" spans="1:4">
+      <c r="A49" s="4">
+        <v>13</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="24">
-        <v>44318.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="25" t="s">
+      <c r="D49" s="19">
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:4">
+      <c r="A51" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="26"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="27" t="s">
+      <c r="B51" s="13"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:3">
+      <c r="A52" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="B53" s="29" t="s">
+    <row r="53" customHeight="1" spans="1:3">
+      <c r="A53" s="23">
+        <v>1</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="B54" s="30" t="s">
+    <row r="54" customHeight="1" spans="1:3">
+      <c r="A54" s="23">
+        <v>2</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="B55" s="21" t="s">
+    <row r="55" customHeight="1" spans="1:3">
+      <c r="A55" s="23">
+        <v>3</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="28">
-        <v>4.0</v>
-      </c>
-      <c r="B56" s="22" t="s">
+    <row r="56" customHeight="1" spans="1:3">
+      <c r="A56" s="23">
+        <v>4</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="28">
-        <v>5.0</v>
-      </c>
-      <c r="B57" s="22" t="s">
+    <row r="57" customHeight="1" spans="1:3">
+      <c r="A57" s="23">
+        <v>5</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="28">
-        <v>6.0</v>
-      </c>
-      <c r="B58" s="22" t="s">
+    <row r="58" customHeight="1" spans="1:3">
+      <c r="A58" s="23">
+        <v>6</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="B59" s="22" t="s">
+    <row r="59" customHeight="1" spans="1:3">
+      <c r="A59" s="23">
+        <v>7</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1325,10 +1944,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="A35:E35"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="B21:C21"/>
@@ -1336,184 +1951,193 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A35:E35"/>
     <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D32:D33"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="55.57"/>
-    <col customWidth="1" min="3" max="3" width="104.0"/>
+    <col min="2" max="2" width="55.5727272727273" customWidth="1"/>
+    <col min="3" max="3" width="104" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="21" t="s">
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="21" t="s">
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="21" t="s">
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="20">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="21" t="s">
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="20">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="21" t="s">
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="20">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="21" t="s">
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="21" t="s">
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="20">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="21" t="s">
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="20">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="21" t="s">
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="20">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="21" t="s">
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="20">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="21" t="s">
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="20">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="21" t="s">
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="5" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>